--- a/hebrewOutputs/hebrew82Comperation_5_Common_alpha=0.08.xlsx
+++ b/hebrewOutputs/hebrew82Comperation_5_Common_alpha=0.08.xlsx
@@ -157,6 +157,9 @@
     <t>אני יודעת פשוט אתה יודע</t>
   </si>
   <si>
+    <t>concern</t>
+  </si>
+  <si>
     <t xml:space="preserve">תנו את מה שצריך אנטיביוטקיה </t>
   </si>
   <si>
@@ -305,9 +308,6 @@
   </si>
   <si>
     <t>אני בשוק אני לא מבינה איך כאלו מאיפה זה בא</t>
-  </si>
-  <si>
-    <t>concern</t>
   </si>
   <si>
     <t xml:space="preserve">איך פתאום - סכרת - כי מה? </t>
@@ -864,7 +864,7 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
@@ -878,7 +878,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
@@ -934,7 +934,7 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D8" t="s">
         <v>9</v>
@@ -1088,7 +1088,7 @@
         <v>5</v>
       </c>
       <c r="C19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D19" t="s">
         <v>9</v>
@@ -1270,7 +1270,7 @@
         <v>22</v>
       </c>
       <c r="C32" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="D32" t="s">
         <v>7</v>
@@ -1278,13 +1278,13 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B33" t="s">
         <v>30</v>
       </c>
       <c r="C33" t="s">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="D33" t="s">
         <v>7</v>
@@ -1292,7 +1292,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B34" t="s">
         <v>20</v>
@@ -1306,7 +1306,7 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B35" t="s">
         <v>30</v>
@@ -1320,13 +1320,13 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B36" t="s">
         <v>20</v>
       </c>
       <c r="C36" t="s">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="D36" t="s">
         <v>7</v>
@@ -1334,10 +1334,10 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B37" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C37" t="s">
         <v>22</v>
@@ -1348,10 +1348,10 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B38" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C38" t="s">
         <v>23</v>
@@ -1362,7 +1362,7 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B39" t="s">
         <v>23</v>
@@ -1390,7 +1390,7 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B41" t="s">
         <v>23</v>
@@ -1404,7 +1404,7 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B42" t="s">
         <v>23</v>
@@ -1418,7 +1418,7 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B43" t="s">
         <v>23</v>
@@ -1432,7 +1432,7 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B44" t="s">
         <v>23</v>
@@ -1446,10 +1446,10 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B45" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C45" t="s">
         <v>6</v>
@@ -1460,7 +1460,7 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B46" t="s">
         <v>12</v>
@@ -1474,7 +1474,7 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B47" t="s">
         <v>23</v>
@@ -1488,10 +1488,10 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B48" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C48" t="s">
         <v>6</v>
@@ -1502,7 +1502,7 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B49" t="s">
         <v>23</v>
@@ -1516,7 +1516,7 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B50" t="s">
         <v>22</v>
@@ -1530,13 +1530,13 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B51" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C51" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="D51" t="s">
         <v>9</v>
@@ -1544,10 +1544,10 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B52" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C52" t="s">
         <v>6</v>
@@ -1558,7 +1558,7 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B53" t="s">
         <v>23</v>
@@ -1572,10 +1572,10 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B54" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C54" t="s">
         <v>23</v>
@@ -1586,13 +1586,13 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B55" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C55" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D55" t="s">
         <v>7</v>
@@ -1600,10 +1600,10 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B56" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C56" t="s">
         <v>23</v>
@@ -1614,7 +1614,7 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B57" t="s">
         <v>23</v>
@@ -1628,10 +1628,10 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B58" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C58" t="s">
         <v>6</v>
@@ -1642,7 +1642,7 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B59" t="s">
         <v>23</v>
@@ -1656,7 +1656,7 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B60" t="s">
         <v>39</v>
@@ -1670,10 +1670,10 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B61" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C61" t="s">
         <v>6</v>
@@ -1684,10 +1684,10 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
+        <v>84</v>
+      </c>
+      <c r="B62" t="s">
         <v>83</v>
-      </c>
-      <c r="B62" t="s">
-        <v>82</v>
       </c>
       <c r="C62" t="s">
         <v>6</v>
@@ -1698,7 +1698,7 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B63" t="s">
         <v>12</v>
@@ -1712,7 +1712,7 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B64" t="s">
         <v>23</v>
@@ -1726,7 +1726,7 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B65" t="s">
         <v>23</v>
@@ -1740,7 +1740,7 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B66" t="s">
         <v>23</v>
@@ -1754,7 +1754,7 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B67" t="s">
         <v>14</v>
@@ -1768,7 +1768,7 @@
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B68" t="s">
         <v>23</v>
@@ -1782,7 +1782,7 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B69" t="s">
         <v>14</v>
@@ -1796,7 +1796,7 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B70" t="s">
         <v>14</v>
@@ -1810,13 +1810,13 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B71" t="s">
         <v>22</v>
       </c>
       <c r="C71" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D71" t="s">
         <v>9</v>
@@ -1824,7 +1824,7 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B72" t="s">
         <v>22</v>
@@ -1838,10 +1838,10 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B73" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C73" t="s">
         <v>6</v>
@@ -1852,10 +1852,10 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B74" t="s">
-        <v>97</v>
+        <v>47</v>
       </c>
       <c r="C74" t="s">
         <v>12</v>
@@ -1897,7 +1897,7 @@
         <v>101</v>
       </c>
       <c r="B77" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C77" t="s">
         <v>6</v>
@@ -2023,7 +2023,7 @@
         <v>110</v>
       </c>
       <c r="B86" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C86" t="s">
         <v>6</v>
@@ -2110,7 +2110,7 @@
         <v>14</v>
       </c>
       <c r="C92" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D92" t="s">
         <v>9</v>
@@ -2149,7 +2149,7 @@
         <v>120</v>
       </c>
       <c r="B95" t="s">
-        <v>97</v>
+        <v>47</v>
       </c>
       <c r="C95" t="s">
         <v>20</v>
@@ -2163,7 +2163,7 @@
         <v>121</v>
       </c>
       <c r="B96" t="s">
-        <v>97</v>
+        <v>47</v>
       </c>
       <c r="C96" t="s">
         <v>6</v>
@@ -2177,7 +2177,7 @@
         <v>122</v>
       </c>
       <c r="B97" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C97" t="s">
         <v>6</v>
@@ -2191,10 +2191,10 @@
         <v>123</v>
       </c>
       <c r="B98" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C98" t="s">
-        <v>22</v>
+        <v>77</v>
       </c>
       <c r="D98" t="s">
         <v>9</v>
@@ -2247,10 +2247,10 @@
         <v>129</v>
       </c>
       <c r="B102" t="s">
-        <v>97</v>
+        <v>47</v>
       </c>
       <c r="C102" t="s">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="D102" t="s">
         <v>7</v>
@@ -2275,7 +2275,7 @@
         <v>131</v>
       </c>
       <c r="B104" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C104" t="s">
         <v>20</v>
@@ -2415,7 +2415,7 @@
         <v>142</v>
       </c>
       <c r="B114" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C114" t="s">
         <v>6</v>
@@ -2432,7 +2432,7 @@
         <v>23</v>
       </c>
       <c r="C115" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D115" t="s">
         <v>9</v>
@@ -2443,7 +2443,7 @@
         <v>142</v>
       </c>
       <c r="B116" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C116" t="s">
         <v>6</v>
@@ -2488,7 +2488,7 @@
         <v>23</v>
       </c>
       <c r="C119" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D119" t="s">
         <v>9</v>
@@ -2499,10 +2499,10 @@
         <v>147</v>
       </c>
       <c r="B120" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C120" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D120" t="s">
         <v>9</v>
@@ -2527,7 +2527,7 @@
         <v>149</v>
       </c>
       <c r="B122" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C122" t="s">
         <v>6</v>
@@ -2541,7 +2541,7 @@
         <v>150</v>
       </c>
       <c r="B123" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C123" t="s">
         <v>6</v>
@@ -2558,7 +2558,7 @@
         <v>128</v>
       </c>
       <c r="C124" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D124" t="s">
         <v>9</v>
@@ -2569,7 +2569,7 @@
         <v>152</v>
       </c>
       <c r="B125" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C125" t="s">
         <v>6</v>
@@ -2597,7 +2597,7 @@
         <v>154</v>
       </c>
       <c r="B127" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C127" t="s">
         <v>6</v>
@@ -2625,10 +2625,10 @@
         <v>156</v>
       </c>
       <c r="B129" t="s">
-        <v>97</v>
+        <v>47</v>
       </c>
       <c r="C129" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D129" t="s">
         <v>7</v>
@@ -2639,7 +2639,7 @@
         <v>157</v>
       </c>
       <c r="B130" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C130" t="s">
         <v>6</v>
@@ -2653,7 +2653,7 @@
         <v>158</v>
       </c>
       <c r="B131" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C131" t="s">
         <v>6</v>
